--- a/ZWK-PAT/PAT 2023/FASE 2/VOOLOPIGE FASE2/25 Sept/IT1015 - Marlu Potgieter_PAT Merkrubriek_2023.xlsx
+++ b/ZWK-PAT/PAT 2023/FASE 2/VOOLOPIGE FASE2/25 Sept/IT1015 - Marlu Potgieter_PAT Merkrubriek_2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\IT\IT Gr10 - 2023\STUDENTE\PAT 2023\Merkblaaie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZWK-IT\ZWK-PAT\PAT 2023\FASE 2\VOOLOPIGE FASE2\25 Sept\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Taak 1_5" sheetId="1" r:id="rId1"/>
@@ -1421,7 +1421,7 @@
       <family val="5"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1437,6 +1437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,7 +1669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1965,23 +1971,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1996,30 +2002,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2037,35 +2037,59 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2079,23 +2103,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2112,23 +2139,26 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2142,29 +2172,14 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2196,7 +2211,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2496,7 +2511,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$D$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2508,7 +2523,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2552,7 +2567,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$B$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2576,11 +2591,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$B$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2620,7 +2635,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="B10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="B10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2640,7 +2655,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$B$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2648,7 +2663,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$B$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$B$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2672,7 +2687,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$D$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2684,7 +2699,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$D$26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2694,15 +2709,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2761,15 +2776,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2828,15 +2843,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2895,15 +2910,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2962,15 +2977,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3029,7 +3044,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3096,7 +3111,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3163,7 +3178,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3230,7 +3245,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3297,7 +3312,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3364,7 +3379,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3372,7 +3387,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>393700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3431,7 +3446,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3439,7 +3454,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>393700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3498,7 +3513,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3506,7 +3521,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>393700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3565,7 +3580,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3573,7 +3588,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>393700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3632,7 +3647,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3640,7 +3655,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>393700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3699,7 +3714,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3707,7 +3722,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3766,7 +3781,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3774,7 +3789,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3833,7 +3848,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3841,7 +3856,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3900,7 +3915,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3908,7 +3923,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3967,7 +3982,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3975,7 +3990,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4034,7 +4049,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4101,7 +4116,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4168,7 +4183,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4235,7 +4250,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4302,7 +4317,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4369,7 +4384,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4436,7 +4451,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4503,7 +4518,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4570,7 +4585,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4637,7 +4652,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4704,7 +4719,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4771,7 +4786,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4838,7 +4853,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4905,7 +4920,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4972,7 +4987,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5039,7 +5054,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5106,7 +5121,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5173,7 +5188,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5240,7 +5255,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5307,13 +5322,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5374,13 +5389,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5441,13 +5456,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5508,13 +5523,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5575,13 +5590,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5642,7 +5657,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5709,7 +5724,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5776,7 +5791,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5843,7 +5858,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5910,7 +5925,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5977,7 +5992,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6044,7 +6059,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6111,7 +6126,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6178,7 +6193,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6245,7 +6260,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6317,13 +6332,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6384,13 +6399,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6451,13 +6466,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6518,13 +6533,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6585,13 +6600,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6652,13 +6667,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6719,13 +6734,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6786,13 +6801,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6853,13 +6868,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6920,13 +6935,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6987,13 +7002,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7054,13 +7069,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7121,13 +7136,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7188,13 +7203,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7255,13 +7270,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7322,13 +7337,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7389,13 +7404,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7456,13 +7471,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7523,13 +7538,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7590,13 +7605,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
+          <xdr:colOff>1098550</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7657,7 +7672,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -7724,7 +7739,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -7791,7 +7806,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -7858,7 +7873,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -7925,7 +7940,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -7992,7 +8007,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8059,7 +8074,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8126,7 +8141,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8193,7 +8208,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8260,7 +8275,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8327,7 +8342,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8394,7 +8409,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8461,7 +8476,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8528,7 +8543,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8595,7 +8610,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8662,7 +8677,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -8729,13 +8744,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8798,13 +8813,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8863,13 +8878,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8930,15 +8945,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>565150</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8997,13 +9012,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9066,13 +9081,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9131,13 +9146,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9198,15 +9213,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>565150</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9265,7 +9280,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9332,7 +9347,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9399,7 +9414,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9466,7 +9481,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9533,7 +9548,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9600,7 +9615,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -9667,7 +9682,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -9739,15 +9754,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>584200</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>260350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9808,13 +9823,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9873,7 +9888,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -9940,15 +9955,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>565150</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10007,15 +10022,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>908050</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10074,15 +10089,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>584200</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>904875</xdr:rowOff>
+          <xdr:rowOff>908050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>222250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10147,7 +10162,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>869950</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -10208,15 +10223,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>565150</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10281,7 +10296,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>869950</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -10342,7 +10357,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -10409,7 +10424,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -10476,7 +10491,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -10545,13 +10560,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1238250</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>260350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10677,15 +10692,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>908050</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10744,15 +10759,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>908050</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10813,11 +10828,11 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>869950</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -10878,13 +10893,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>908050</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -10945,13 +10960,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>908050</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -11012,13 +11027,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>908050</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -11079,13 +11094,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>908050</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -11489,17 +11504,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
-    <col min="2" max="6" width="15.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="36"/>
+    <col min="1" max="1" width="19.23046875" style="1" customWidth="1"/>
+    <col min="2" max="6" width="15.765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.3046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.84375" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -11509,10 +11524,10 @@
       <c r="B1" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="118" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="143"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="106" t="s">
         <v>189</v>
       </c>
@@ -11550,7 +11565,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="125" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -11575,10 +11590,10 @@
         <f>IF(B4=TRUE,4,IF(C4=TRUE,3,IF(D4=TRUE,2,IF(E4=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I3" s="127"/>
+      <c r="I3" s="119"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="120"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="11" t="b">
         <v>1</v>
       </c>
@@ -11594,7 +11609,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="122"/>
       <c r="H4" s="124"/>
-      <c r="I4" s="128"/>
+      <c r="I4" s="120"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -11619,8 +11634,8 @@
       <c r="H5" s="9"/>
       <c r="I5" s="44"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="140.25">
-      <c r="A6" s="118" t="s">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="156">
+      <c r="A6" s="127" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="61" t="s">
@@ -11645,11 +11660,11 @@
         <f>IF(B7=TRUE,4,IF(C7=TRUE,3,IF(D7=TRUE,2,IF(E7=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="117"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="143"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A7" s="120"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="11" t="b">
         <v>1</v>
       </c>
@@ -11665,8 +11680,8 @@
       <c r="F7" s="11"/>
       <c r="G7" s="122"/>
       <c r="H7" s="124"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="117"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="143"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
@@ -11691,8 +11706,8 @@
       <c r="H8" s="99"/>
       <c r="I8" s="102"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="63.75">
-      <c r="A9" s="125" t="s">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="65">
+      <c r="A9" s="145" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="61" t="s">
@@ -11717,12 +11732,12 @@
         <f>IF(B10=TRUE,4,IF(C10=TRUE,3,IF(D10=TRUE,2,IF(E10=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="116"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="142"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A10" s="126"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="69" t="b">
         <v>1</v>
       </c>
@@ -11740,11 +11755,11 @@
       </c>
       <c r="G10" s="122"/>
       <c r="H10" s="124"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="116"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="142"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="25.5">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="26">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -11768,7 +11783,7 @@
       <c r="I11" s="102"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="125" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -11793,12 +11808,12 @@
         <f>IF(B13=TRUE,4,IF(C13=TRUE,3,IF(D13=TRUE,2,IF(E13=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I12" s="127"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="140"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="120"/>
+      <c r="A13" s="126"/>
       <c r="B13" s="69" t="b">
         <v>1</v>
       </c>
@@ -11816,9 +11831,9 @@
       </c>
       <c r="G13" s="122"/>
       <c r="H13" s="124"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="140"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="129"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A14" s="5" t="s">
@@ -11844,7 +11859,7 @@
       <c r="I14" s="102"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="127" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -11869,12 +11884,12 @@
         <f>IF(B16=TRUE,4,IF(C16=TRUE,3,IF(D16=TRUE,2,IF(E16=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I15" s="127"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="140"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="129"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A16" s="119"/>
+      <c r="A16" s="144"/>
       <c r="B16" s="13" t="b">
         <v>1</v>
       </c>
@@ -11892,9 +11907,9 @@
       </c>
       <c r="G16" s="122"/>
       <c r="H16" s="124"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="140"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="129"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A17" s="5" t="s">
@@ -11920,7 +11935,7 @@
       <c r="I17" s="102"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="127" t="s">
         <v>139</v>
       </c>
       <c r="B18" s="97" t="s">
@@ -11941,15 +11956,15 @@
       <c r="G18" s="121">
         <v>4</v>
       </c>
-      <c r="H18" s="132">
+      <c r="H18" s="139">
         <f>IF(B19=TRUE,4,IF(C19=TRUE,3,IF(D19=TRUE,2,IF(E19=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I18" s="127"/>
+      <c r="I18" s="119"/>
       <c r="J18" s="71"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A19" s="119"/>
+      <c r="A19" s="144"/>
       <c r="B19" s="13" t="b">
         <v>1</v>
       </c>
@@ -11965,9 +11980,9 @@
       <c r="F19" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="131"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="128"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="120"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A20" s="7" t="s">
@@ -11993,7 +12008,7 @@
       <c r="I20" s="102"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="127" t="s">
         <v>156</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -12018,12 +12033,12 @@
         <f>IF(B22=TRUE,4,IF(C22=TRUE,3,IF(D22=TRUE,2,IF(E22=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I21" s="127"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="116"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="142"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A22" s="120"/>
+      <c r="A22" s="126"/>
       <c r="B22" s="13" t="b">
         <v>1</v>
       </c>
@@ -12039,12 +12054,12 @@
       </c>
       <c r="G22" s="122"/>
       <c r="H22" s="124"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="116"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="142"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="111.75" customHeight="1">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="127" t="s">
         <v>162</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -12069,10 +12084,10 @@
         <f>IF(B24=TRUE,4,IF(C24=TRUE,3,IF(D24=TRUE,2,IF(E24=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I23" s="127"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A24" s="120"/>
+      <c r="A24" s="126"/>
       <c r="B24" s="13" t="b">
         <v>1</v>
       </c>
@@ -12088,10 +12103,10 @@
       <c r="F24" s="13"/>
       <c r="G24" s="122"/>
       <c r="H24" s="124"/>
-      <c r="I24" s="128"/>
+      <c r="I24" s="120"/>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="98.25" customHeight="1">
-      <c r="A25" s="129" t="s">
+      <c r="A25" s="125" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="64" t="s">
@@ -12116,10 +12131,10 @@
         <f>IF(B26=TRUE,4,IF(C26=TRUE,3,IF(D26=TRUE,2,IF(E26=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I25" s="127"/>
+      <c r="I25" s="119"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A26" s="120"/>
+      <c r="A26" s="126"/>
       <c r="B26" s="13" t="b">
         <v>1</v>
       </c>
@@ -12135,10 +12150,10 @@
       </c>
       <c r="G26" s="122"/>
       <c r="H26" s="124"/>
-      <c r="I26" s="128"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" spans="1:11" ht="96" customHeight="1">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="127" t="s">
         <v>164</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -12163,10 +12178,10 @@
         <f>IF(B28=TRUE,4,IF(C28=TRUE,3,IF(D28=TRUE,2,IF(E28=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I27" s="141"/>
+      <c r="I27" s="130"/>
     </row>
     <row r="28" spans="1:11" ht="39" customHeight="1">
-      <c r="A28" s="120"/>
+      <c r="A28" s="126"/>
       <c r="B28" s="13" t="b">
         <v>1</v>
       </c>
@@ -12182,17 +12197,17 @@
       </c>
       <c r="G28" s="122"/>
       <c r="H28" s="124"/>
-      <c r="I28" s="142"/>
+      <c r="I28" s="131"/>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="137"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="138"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="136"/>
       <c r="G29" s="10">
         <f>SUM(G3:G28)</f>
         <v>40</v>
@@ -12211,28 +12226,28 @@
       <c r="H30" s="85"/>
     </row>
     <row r="31" spans="1:11" ht="27" customHeight="1">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
     </row>
     <row r="32" spans="1:11" ht="57.75" customHeight="1">
-      <c r="A32" s="135" t="s">
+      <c r="A32" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
     </row>
     <row r="33" spans="1:8" ht="33.75" customHeight="1">
       <c r="A33" s="1" t="s">
@@ -12265,17 +12280,17 @@
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
     </row>
-    <row r="37" spans="1:8" ht="60">
-      <c r="A37" s="179" t="s">
+    <row r="37" spans="1:8" ht="62">
+      <c r="A37" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="180" t="s">
+      <c r="B37" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="179" t="s">
+      <c r="C37" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="181" t="s">
+      <c r="D37" s="117" t="s">
         <v>191</v>
       </c>
       <c r="E37" s="25" t="s">
@@ -12300,10 +12315,10 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" s="130" t="s">
+      <c r="B41" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="130"/>
+      <c r="C41" s="137"/>
       <c r="D41" s="26"/>
       <c r="E41" s="25" t="s">
         <v>3</v>
@@ -12322,41 +12337,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="J21:K22"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A15:A16"/>
@@ -12372,6 +12352,41 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="J9:K10"/>
     <mergeCell ref="J12:K13"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -12395,15 +12410,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12417,15 +12432,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12439,15 +12454,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12461,15 +12476,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12483,15 +12498,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12505,7 +12520,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12527,7 +12542,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12549,7 +12564,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12571,7 +12586,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12593,7 +12608,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12615,7 +12630,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12623,7 +12638,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>393700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12637,7 +12652,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12645,7 +12660,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>393700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12659,7 +12674,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12667,7 +12682,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>393700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12681,7 +12696,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12689,7 +12704,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>393700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12703,7 +12718,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12711,7 +12726,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>393700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12725,7 +12740,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12733,7 +12748,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12747,7 +12762,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12755,7 +12770,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12769,7 +12784,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12777,7 +12792,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12791,7 +12806,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12799,7 +12814,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12813,7 +12828,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12821,7 +12836,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12835,7 +12850,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12857,7 +12872,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12879,7 +12894,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12901,7 +12916,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12923,7 +12938,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12945,7 +12960,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12967,7 +12982,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12989,7 +13004,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13011,7 +13026,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13033,7 +13048,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13055,7 +13070,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13077,7 +13092,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13099,7 +13114,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13121,7 +13136,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13143,7 +13158,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13165,7 +13180,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13187,7 +13202,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13209,7 +13224,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13231,7 +13246,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13253,13 +13268,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13275,13 +13290,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13297,13 +13312,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13319,13 +13334,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13341,13 +13356,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13363,7 +13378,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13385,7 +13400,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13407,7 +13422,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13429,7 +13444,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13451,7 +13466,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13473,7 +13488,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13495,7 +13510,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13517,7 +13532,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13539,7 +13554,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13561,7 +13576,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13586,18 +13601,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.77734375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="84"/>
+    <col min="1" max="1" width="22.53515625" customWidth="1"/>
+    <col min="2" max="2" width="16.84375" customWidth="1"/>
+    <col min="3" max="5" width="15.765625" customWidth="1"/>
+    <col min="6" max="6" width="13.765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.84375" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -13607,11 +13622,11 @@
       <c r="B1" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="143" t="str">
+      <c r="C1" s="118" t="str">
         <f>'Taak 1_5'!C1</f>
         <v>Marlu Potgieter</v>
       </c>
-      <c r="D1" s="143"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="106" t="s">
         <v>195</v>
       </c>
@@ -13649,8 +13664,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="38.25">
-      <c r="A3" s="129" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="39">
+      <c r="A3" s="125" t="s">
         <v>179</v>
       </c>
       <c r="B3" s="61" t="s">
@@ -13671,14 +13686,14 @@
       <c r="G3" s="121">
         <v>4</v>
       </c>
-      <c r="H3" s="147">
+      <c r="H3" s="153">
         <f>IF(B4=TRUE,4,IF(C4=TRUE,3,IF(D4=TRUE,2,IF(E4=TRUE,1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="148"/>
+        <v>2</v>
+      </c>
+      <c r="I3" s="150"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A4" s="119"/>
+      <c r="A4" s="144"/>
       <c r="B4" s="13" t="b">
         <v>0</v>
       </c>
@@ -13686,15 +13701,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="13" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="122"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="148"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="150"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="34" t="s">
@@ -13720,7 +13735,7 @@
       <c r="I5" s="102"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="125" t="s">
         <v>178</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -13741,19 +13756,19 @@
       <c r="G6" s="121">
         <v>4</v>
       </c>
-      <c r="H6" s="147">
+      <c r="H6" s="153">
         <f>IF(B7=TRUE,4,IF(C7=TRUE,3,IF(D7=TRUE,2,IF(E7=TRUE,1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="148"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A7" s="119"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="13" t="b">
         <v>0</v>
       </c>
       <c r="C7" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="13" t="b">
         <v>0</v>
@@ -13763,8 +13778,8 @@
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="122"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="148"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="182"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
@@ -13790,7 +13805,7 @@
       <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="127" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -13811,16 +13826,16 @@
       <c r="G9" s="121">
         <v>4</v>
       </c>
-      <c r="H9" s="147">
+      <c r="H9" s="153">
         <f>IF(B10=TRUE,4,IF(C10=TRUE,3,IF(D10=TRUE,2,IF(E10=TRUE,1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="148"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="150"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A10" s="119"/>
+      <c r="A10" s="144"/>
       <c r="B10" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="13" t="b">
         <v>0</v>
@@ -13833,11 +13848,11 @@
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="122"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="148"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="150"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="84" customHeight="1">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="155" t="s">
         <v>169</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -13858,17 +13873,17 @@
       <c r="G11" s="121">
         <v>4</v>
       </c>
-      <c r="H11" s="147">
+      <c r="H11" s="153">
         <f>IF(B12=TRUE,4,IF(C12=TRUE,3,IF(D12=TRUE,2,IF(E12=TRUE,1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="148"/>
-      <c r="J11" s="117"/>
+        <v>4</v>
+      </c>
+      <c r="I11" s="150"/>
+      <c r="J11" s="143"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A12" s="150"/>
+      <c r="A12" s="156"/>
       <c r="B12" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="13" t="b">
         <v>0</v>
@@ -13879,12 +13894,12 @@
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="122"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="117"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="143"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="157" t="s">
         <v>170</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -13905,20 +13920,20 @@
       <c r="G13" s="121">
         <v>4</v>
       </c>
-      <c r="H13" s="147">
+      <c r="H13" s="153">
         <f>IF(B14=TRUE,4,IF(C14=TRUE,3,IF(D14=TRUE,2,IF(E14=TRUE,1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="148"/>
-      <c r="J13" s="117"/>
+        <v>3</v>
+      </c>
+      <c r="I13" s="182"/>
+      <c r="J13" s="143"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A14" s="152"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="13" t="b">
         <v>0</v>
       </c>
       <c r="C14" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="13" t="b">
         <v>0</v>
@@ -13928,12 +13943,12 @@
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="122"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="117"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="143"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="96.75" customHeight="1">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="127" t="s">
         <v>171</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -13954,16 +13969,16 @@
       <c r="G15" s="121">
         <v>4</v>
       </c>
-      <c r="H15" s="147">
+      <c r="H15" s="153">
         <f>IF(B16=TRUE,4,IF(C16=TRUE,3,IF(D16=TRUE,2,IF(E16=TRUE,1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="148"/>
+        <v>4</v>
+      </c>
+      <c r="I15" s="150"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A16" s="119"/>
+      <c r="A16" s="144"/>
       <c r="B16" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="13" t="b">
         <v>0</v>
@@ -13976,11 +13991,11 @@
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="122"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="148"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="150"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="125" t="s">
         <v>172</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -14001,16 +14016,16 @@
       <c r="G17" s="121">
         <v>4</v>
       </c>
-      <c r="H17" s="147">
+      <c r="H17" s="153">
         <f>IF(B18=TRUE,4,IF(C18=TRUE,3,IF(D18=TRUE,2,IF(E18=TRUE,1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="148"/>
+        <v>4</v>
+      </c>
+      <c r="I17" s="150"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A18" s="120"/>
+      <c r="A18" s="126"/>
       <c r="B18" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="13" t="b">
         <v>0</v>
@@ -14025,10 +14040,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="122"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="148"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="150"/>
     </row>
-    <row r="19" spans="1:10" ht="25.5">
+    <row r="19" spans="1:10" ht="26">
       <c r="A19" s="37" t="s">
         <v>71</v>
       </c>
@@ -14051,8 +14066,8 @@
       <c r="H19" s="79"/>
       <c r="I19" s="41"/>
     </row>
-    <row r="20" spans="1:10" s="16" customFormat="1" ht="102">
-      <c r="A20" s="158" t="s">
+    <row r="20" spans="1:10" s="16" customFormat="1" ht="104">
+      <c r="A20" s="154" t="s">
         <v>64</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -14073,14 +14088,14 @@
       <c r="G20" s="121">
         <v>4</v>
       </c>
-      <c r="H20" s="147">
+      <c r="H20" s="153">
         <f>IF(B21=TRUE,4,IF(C21=TRUE,3,IF(D21=TRUE,2,IF(E21=TRUE,1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="144"/>
+        <v>2</v>
+      </c>
+      <c r="I20" s="183"/>
     </row>
-    <row r="21" spans="1:10" s="16" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A21" s="158"/>
+    <row r="21" spans="1:10" s="16" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A21" s="154"/>
       <c r="B21" s="46" t="b">
         <v>0</v>
       </c>
@@ -14088,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="46" t="b">
         <v>0</v>
@@ -14097,11 +14112,11 @@
         <v>0</v>
       </c>
       <c r="G21" s="122"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="145"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="184"/>
     </row>
-    <row r="22" spans="1:10" s="16" customFormat="1" ht="38.25">
-      <c r="A22" s="146" t="s">
+    <row r="22" spans="1:10" s="16" customFormat="1" ht="52">
+      <c r="A22" s="161" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14122,16 +14137,16 @@
       <c r="G22" s="121">
         <v>4</v>
       </c>
-      <c r="H22" s="147">
+      <c r="H22" s="153">
         <f>IF(B23=TRUE,4,IF(C23=TRUE,3,IF(D23=TRUE,2,IF(E23=TRUE,1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="144"/>
+        <v>4</v>
+      </c>
+      <c r="I22" s="159"/>
     </row>
-    <row r="23" spans="1:10" s="16" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A23" s="146"/>
+    <row r="23" spans="1:10" s="16" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A23" s="161"/>
       <c r="B23" s="46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="46" t="b">
         <v>0</v>
@@ -14146,8 +14161,8 @@
         <v>0</v>
       </c>
       <c r="G23" s="122"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="145"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="160"/>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
@@ -14172,8 +14187,8 @@
       <c r="H24" s="98"/>
       <c r="I24" s="102"/>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="89.25">
-      <c r="A25" s="129" t="s">
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="117">
+      <c r="A25" s="125" t="s">
         <v>88</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -14194,15 +14209,15 @@
       <c r="G25" s="121">
         <v>4</v>
       </c>
-      <c r="H25" s="147">
+      <c r="H25" s="153">
         <f>IF(B26=TRUE,4,IF(C26=TRUE,3,IF(D26=TRUE,2,IF(E26=TRUE,1,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="148"/>
-      <c r="J25" s="117"/>
+        <v>2</v>
+      </c>
+      <c r="I25" s="150"/>
+      <c r="J25" s="143"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A26" s="120"/>
+      <c r="A26" s="126"/>
       <c r="B26" s="13" t="b">
         <v>0</v>
       </c>
@@ -14210,35 +14225,35 @@
         <v>0</v>
       </c>
       <c r="D26" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="13" t="b">
         <v>0</v>
       </c>
       <c r="F26" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="122"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="117"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="143"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A27" s="153" t="s">
+      <c r="A27" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="154"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="149"/>
       <c r="G27" s="10">
         <f>SUM(G2:G26)</f>
         <v>40</v>
       </c>
       <c r="H27" s="101">
         <f>SUM(H2:H26)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I27" s="103">
         <f>SUM(I2:I26)</f>
@@ -14248,29 +14263,29 @@
     <row r="28" spans="1:10">
       <c r="I28" s="40"/>
     </row>
-    <row r="29" spans="1:10" ht="20.25">
-      <c r="A29" s="134" t="s">
+    <row r="29" spans="1:10" ht="20">
+      <c r="A29" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="134"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
     </row>
     <row r="30" spans="1:10" ht="58.5" customHeight="1">
-      <c r="A30" s="135" t="s">
+      <c r="A30" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
@@ -14285,24 +14300,24 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1">
-      <c r="A32" s="157"/>
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
+      <c r="A32" s="152"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
     </row>
     <row r="33" spans="1:9" ht="27" customHeight="1">
-      <c r="A33" s="156"/>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
+      <c r="A33" s="151"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="33"/>
@@ -14315,7 +14330,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="36"/>
     </row>
-    <row r="35" spans="1:9" ht="35.25">
+    <row r="35" spans="1:9" ht="35">
       <c r="A35" s="24" t="s">
         <v>2</v>
       </c>
@@ -14384,10 +14399,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1"/>
-      <c r="B39" s="130" t="s">
+      <c r="B39" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="130"/>
+      <c r="C39" s="137"/>
       <c r="D39" s="26"/>
       <c r="E39" s="25" t="s">
         <v>3</v>
@@ -14425,6 +14440,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="I13:I14"/>
@@ -14441,40 +14490,6 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -14493,13 +14508,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14515,13 +14530,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14537,13 +14552,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14559,13 +14574,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14581,13 +14596,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14603,13 +14618,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14625,13 +14640,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14647,13 +14662,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14669,13 +14684,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14691,13 +14706,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14713,13 +14728,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14735,13 +14750,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14757,13 +14772,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14779,13 +14794,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14801,13 +14816,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14823,13 +14838,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14845,13 +14860,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14867,13 +14882,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14889,13 +14904,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14911,13 +14926,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
+                    <xdr:colOff>1098550</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14933,7 +14948,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -14955,7 +14970,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -14977,7 +14992,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -14999,7 +15014,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15021,7 +15036,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15043,7 +15058,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15065,7 +15080,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15087,7 +15102,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15109,7 +15124,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15131,7 +15146,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15153,7 +15168,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15175,7 +15190,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15197,7 +15212,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15219,7 +15234,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15241,7 +15256,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15263,7 +15278,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -15285,13 +15300,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15309,13 +15324,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>647700</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15329,13 +15344,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15351,15 +15366,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>565150</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15373,13 +15388,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15397,13 +15412,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>647700</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15417,13 +15432,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15439,15 +15454,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>565150</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15461,7 +15476,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15483,7 +15498,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15505,7 +15520,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15527,7 +15542,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15549,7 +15564,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15571,7 +15586,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -15593,7 +15608,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -15622,30 +15637,30 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.23046875" customWidth="1"/>
+    <col min="2" max="2" width="15.23046875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="6" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="3.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.23046875" customWidth="1"/>
+    <col min="7" max="7" width="3.765625" customWidth="1"/>
+    <col min="8" max="8" width="8.23046875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="159"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="143" t="str">
+      <c r="D1" s="118" t="str">
         <f>'Taak 1_5'!C1</f>
         <v>Marlu Potgieter</v>
       </c>
-      <c r="E1" s="143"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="110" t="s">
         <v>195</v>
       </c>
@@ -15683,7 +15698,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="58" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="167" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="72" t="s">
@@ -15708,10 +15723,10 @@
         <f>IF(B4=TRUE,$B$2,IF(C4=TRUE,$C$2,IF(D4=TRUE,$D$2,IF(E4=TRUE,$E$2,0))))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="144"/>
+      <c r="I3" s="159"/>
     </row>
-    <row r="4" spans="1:9" s="58" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A4" s="161"/>
+    <row r="4" spans="1:9" s="58" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A4" s="168"/>
       <c r="B4" s="59" t="b">
         <v>0</v>
       </c>
@@ -15729,7 +15744,7 @@
       </c>
       <c r="G4" s="122"/>
       <c r="H4" s="124"/>
-      <c r="I4" s="145"/>
+      <c r="I4" s="160"/>
     </row>
     <row r="5" spans="1:9" s="58" customFormat="1" ht="81" customHeight="1">
       <c r="A5" s="74" t="s">
@@ -15757,9 +15772,9 @@
         <f t="shared" ref="H5" si="0">IF(B6=TRUE,$B$2,IF(C6=TRUE,$C$2,IF(D6=TRUE,$D$2,IF(E6=TRUE,$E$2,0))))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="144"/>
+      <c r="I5" s="159"/>
     </row>
-    <row r="6" spans="1:9" s="58" customFormat="1" ht="23.1" customHeight="1">
+    <row r="6" spans="1:9" s="58" customFormat="1" ht="23.15" customHeight="1">
       <c r="A6" s="73"/>
       <c r="B6" s="59" t="b">
         <v>0</v>
@@ -15778,10 +15793,10 @@
       </c>
       <c r="G6" s="122"/>
       <c r="H6" s="124"/>
-      <c r="I6" s="145"/>
+      <c r="I6" s="160"/>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="76.5">
-      <c r="A7" s="164" t="s">
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="78">
+      <c r="A7" s="162" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="77" t="s">
@@ -15806,10 +15821,10 @@
         <f t="shared" ref="H7" si="1">IF(B8=TRUE,$B$2,IF(C8=TRUE,$C$2,IF(D8=TRUE,$D$2,IF(E8=TRUE,$E$2,0))))</f>
         <v>0</v>
       </c>
-      <c r="I7" s="144"/>
+      <c r="I7" s="159"/>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A8" s="164"/>
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A8" s="162"/>
       <c r="B8" s="75" t="b">
         <v>0</v>
       </c>
@@ -15825,7 +15840,7 @@
       <c r="F8" s="67"/>
       <c r="G8" s="122"/>
       <c r="H8" s="124"/>
-      <c r="I8" s="145"/>
+      <c r="I8" s="160"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1">
       <c r="A9" s="104" t="s">
@@ -15851,7 +15866,7 @@
       <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="169" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="72" t="s">
@@ -15876,10 +15891,10 @@
         <f>IF(B11=TRUE,$B$9,IF(C11=TRUE,$C$9,IF(D11=TRUE,$D$9,IF(E11=TRUE,$E$9,0))))</f>
         <v>0</v>
       </c>
-      <c r="I10" s="144"/>
+      <c r="I10" s="159"/>
     </row>
-    <row r="11" spans="1:9" s="16" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A11" s="163"/>
+    <row r="11" spans="1:9" s="16" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A11" s="170"/>
       <c r="B11" s="60" t="b">
         <v>0</v>
       </c>
@@ -15895,17 +15910,17 @@
       <c r="F11" s="60"/>
       <c r="G11" s="122"/>
       <c r="H11" s="124"/>
-      <c r="I11" s="145"/>
+      <c r="I11" s="160"/>
     </row>
     <row r="12" spans="1:9" ht="18">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="167"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="165"/>
       <c r="G12" s="35">
         <f>SUM(G3:G11)</f>
         <v>20</v>
@@ -15919,32 +15934,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9">
       <c r="A14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="51.75" customHeight="1">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="135" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
     </row>
     <row r="17" spans="1:9" ht="18">
       <c r="A17" s="1" t="s">
@@ -15959,24 +15974,24 @@
       <c r="H17" s="78"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="157"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="156"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
+      <c r="A19" s="151"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
     </row>
     <row r="20" spans="1:9" ht="18">
       <c r="A20" s="33"/>
@@ -15989,7 +16004,7 @@
       <c r="H20" s="78"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="35.25">
+    <row r="21" spans="1:9" ht="35">
       <c r="A21" s="24" t="s">
         <v>2</v>
       </c>
@@ -16058,10 +16073,10 @@
     </row>
     <row r="25" spans="1:9" ht="18">
       <c r="A25" s="1"/>
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="130"/>
+      <c r="C25" s="137"/>
       <c r="D25" s="26"/>
       <c r="E25" s="25" t="s">
         <v>3</v>
@@ -16099,6 +16114,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="G7:G8"/>
@@ -16109,19 +16137,6 @@
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -16143,15 +16158,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>584200</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:rowOff>260350</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16167,13 +16182,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>647700</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16187,7 +16202,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -16209,15 +16224,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>565150</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16231,15 +16246,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>203200</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>904875</xdr:colOff>
+                    <xdr:colOff>908050</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16253,15 +16268,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>584200</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>904875</xdr:rowOff>
+                    <xdr:rowOff>908050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
+                    <xdr:rowOff>222250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16281,7 +16296,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>869950</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16297,15 +16312,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>565150</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16325,7 +16340,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>869950</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </to>
@@ -16341,7 +16356,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -16363,7 +16378,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -16385,7 +16400,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -16409,13 +16424,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1238250</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:rowOff>260350</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16451,15 +16466,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>203200</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>904875</xdr:colOff>
+                    <xdr:colOff>908050</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16473,15 +16488,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>203200</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>904875</xdr:colOff>
+                    <xdr:colOff>908050</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16497,11 +16512,11 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>552450</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>869950</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -16517,13 +16532,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>203200</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>904875</xdr:colOff>
+                    <xdr:colOff>908050</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16539,13 +16554,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>203200</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>904875</xdr:colOff>
+                    <xdr:colOff>908050</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16561,13 +16576,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>203200</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>904875</xdr:colOff>
+                    <xdr:colOff>908050</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16583,13 +16598,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>203200</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>904875</xdr:colOff>
+                    <xdr:colOff>908050</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16612,20 +16627,20 @@
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.23046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.07421875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.07421875" customWidth="1"/>
+    <col min="14" max="14" width="23.3046875" customWidth="1"/>
+    <col min="15" max="15" width="15.84375" customWidth="1"/>
+    <col min="16" max="16" width="14.3046875" customWidth="1"/>
+    <col min="17" max="17" width="12.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
@@ -16633,11 +16648,11 @@
         <v>90</v>
       </c>
       <c r="B1" s="87"/>
-      <c r="D1" s="143" t="str">
+      <c r="D1" s="118" t="str">
         <f>'Taak 1_5'!C1</f>
         <v>Marlu Potgieter</v>
       </c>
-      <c r="E1" s="143"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="112" t="s">
         <v>195</v>
       </c>
@@ -16646,22 +16661,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" thickBot="1">
-      <c r="B2" s="170" t="s">
+    <row r="2" spans="1:17" ht="18.5" thickBot="1">
+      <c r="B2" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
       <c r="L2" s="1"/>
       <c r="M2" s="174"/>
       <c r="N2" s="174"/>
       <c r="O2" s="174"/>
       <c r="P2" s="174"/>
     </row>
-    <row r="3" spans="1:17" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="3" spans="1:17" s="19" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="18"/>
       <c r="B3" s="91" t="s">
         <v>120</v>
@@ -16688,9 +16703,9 @@
       <c r="P3" s="48"/>
       <c r="Q3" s="49"/>
     </row>
-    <row r="4" spans="1:17" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="4" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="A4" s="18"/>
-      <c r="B4" s="171">
+      <c r="B4" s="179">
         <v>1</v>
       </c>
       <c r="C4" s="93" t="s">
@@ -16717,9 +16732,9 @@
       <c r="P4" s="52"/>
       <c r="Q4" s="53"/>
     </row>
-    <row r="5" spans="1:17" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="5" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="A5" s="18"/>
-      <c r="B5" s="172"/>
+      <c r="B5" s="180"/>
       <c r="C5" s="93" t="s">
         <v>145</v>
       </c>
@@ -16744,9 +16759,9 @@
       <c r="P5" s="52"/>
       <c r="Q5" s="53"/>
     </row>
-    <row r="6" spans="1:17" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="A6" s="18"/>
-      <c r="B6" s="172"/>
+      <c r="B6" s="180"/>
       <c r="C6" s="93" t="s">
         <v>146</v>
       </c>
@@ -16771,9 +16786,9 @@
       <c r="P6" s="52"/>
       <c r="Q6" s="53"/>
     </row>
-    <row r="7" spans="1:17" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="A7" s="18"/>
-      <c r="B7" s="172"/>
+      <c r="B7" s="180"/>
       <c r="C7" s="93" t="s">
         <v>147</v>
       </c>
@@ -16798,9 +16813,9 @@
       <c r="P7" s="52"/>
       <c r="Q7" s="53"/>
     </row>
-    <row r="8" spans="1:17" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="A8" s="18"/>
-      <c r="B8" s="173"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="93" t="s">
         <v>148</v>
       </c>
@@ -16825,9 +16840,9 @@
       <c r="P8" s="52"/>
       <c r="Q8" s="53"/>
     </row>
-    <row r="9" spans="1:17" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="9" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="A9" s="18"/>
-      <c r="B9" s="171">
+      <c r="B9" s="179">
         <v>2</v>
       </c>
       <c r="C9" s="93" t="s">
@@ -16841,7 +16856,7 @@
       </c>
       <c r="F9" s="22">
         <f>'Taak 6_10'!H3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="95">
         <f>'Taak 6_10'!I3</f>
@@ -16854,9 +16869,9 @@
       <c r="P9" s="52"/>
       <c r="Q9" s="54"/>
     </row>
-    <row r="10" spans="1:17" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="A10" s="18"/>
-      <c r="B10" s="172"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="93" t="s">
         <v>150</v>
       </c>
@@ -16868,7 +16883,7 @@
       </c>
       <c r="F10" s="22">
         <f>'Taak 6_10'!H6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="95">
         <f>'Taak 6_10'!I6</f>
@@ -16881,9 +16896,9 @@
       <c r="P10" s="52"/>
       <c r="Q10" s="54"/>
     </row>
-    <row r="11" spans="1:17" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="11" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="A11" s="18"/>
-      <c r="B11" s="172"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="93" t="s">
         <v>151</v>
       </c>
@@ -16895,7 +16910,7 @@
       </c>
       <c r="F11" s="22">
         <f>SUM('Taak 6_10'!H9:H18)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G11" s="95">
         <f>SUM('Taak 6_10'!I9:I18)</f>
@@ -16908,9 +16923,9 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="54"/>
     </row>
-    <row r="12" spans="1:17" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="12" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="A12" s="18"/>
-      <c r="B12" s="172"/>
+      <c r="B12" s="180"/>
       <c r="C12" s="93" t="s">
         <v>152</v>
       </c>
@@ -16922,7 +16937,7 @@
       </c>
       <c r="F12" s="22">
         <f>SUM('Taak 6_10'!H20:H23)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12" s="95">
         <f>SUM('Taak 6_10'!I20:I23)</f>
@@ -16935,9 +16950,9 @@
       <c r="P12" s="52"/>
       <c r="Q12" s="54"/>
     </row>
-    <row r="13" spans="1:17" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="13" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="A13" s="18"/>
-      <c r="B13" s="173"/>
+      <c r="B13" s="181"/>
       <c r="C13" s="93" t="s">
         <v>153</v>
       </c>
@@ -16949,7 +16964,7 @@
       </c>
       <c r="F13" s="22">
         <f>'Taak 6_10'!H25</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="95">
         <f>'Taak 6_10'!I25</f>
@@ -16962,7 +16977,7 @@
       <c r="P13" s="52"/>
       <c r="Q13" s="54"/>
     </row>
-    <row r="14" spans="1:17" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="14" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
       <c r="A14" s="18"/>
       <c r="B14" s="94">
         <v>3</v>
@@ -16991,20 +17006,20 @@
       <c r="P14" s="52"/>
       <c r="Q14" s="54"/>
     </row>
-    <row r="15" spans="1:17" s="19" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:17" s="19" customFormat="1" ht="25" customHeight="1" thickBot="1">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="177"/>
+      <c r="D15" s="172"/>
       <c r="E15" s="88">
         <f>SUM(E4:E14)</f>
         <v>100</v>
       </c>
       <c r="F15" s="89">
         <f>SUM(F4:F14)</f>
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G15" s="90">
         <f>SUM(G4:G14)</f>
@@ -17017,17 +17032,17 @@
       <c r="P15" s="56"/>
       <c r="Q15" s="57"/>
     </row>
-    <row r="16" spans="1:17" s="19" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="16" spans="1:17" s="19" customFormat="1" ht="25" customHeight="1" thickBot="1">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="178" t="s">
+      <c r="C16" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
       <c r="F16" s="23">
         <f>ROUND(F15/E15*100,0)</f>
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G16" s="43">
         <f>ROUND(G15/E15*100,0)</f>
@@ -17040,17 +17055,17 @@
       <c r="P16" s="56"/>
       <c r="Q16" s="57"/>
     </row>
-    <row r="17" spans="1:19" s="19" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" s="19" customFormat="1" ht="25" customHeight="1" thickBot="1">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="178" t="s">
+      <c r="C17" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
       <c r="F17" s="23">
         <f>ROUND(F16/100*25,0)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G17" s="43">
         <f>ROUND(G16/100*25,0)</f>
@@ -17063,47 +17078,47 @@
       <c r="P17" s="56"/>
       <c r="Q17" s="57"/>
     </row>
-    <row r="18" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A18" s="134" t="s">
+    <row r="18" spans="1:19" ht="25" customHeight="1">
+      <c r="A18" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="134"/>
-      <c r="S18" s="134"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="132"/>
     </row>
     <row r="19" spans="1:19" ht="66.75" customHeight="1">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="133"/>
+      <c r="R19" s="133"/>
+      <c r="S19" s="133"/>
     </row>
     <row r="20" spans="1:19" ht="18">
       <c r="A20" s="1" t="s">
@@ -17121,43 +17136,43 @@
       <c r="R20" s="2"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="15">
-      <c r="A21" s="157"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="L21" s="168"/>
-      <c r="M21" s="168"/>
-      <c r="N21" s="168"/>
-      <c r="O21" s="168"/>
-      <c r="P21" s="168"/>
-      <c r="Q21" s="168"/>
-      <c r="R21" s="168"/>
-      <c r="S21" s="168"/>
+    <row r="21" spans="1:19">
+      <c r="A21" s="152"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="177"/>
     </row>
     <row r="22" spans="1:19" ht="24" customHeight="1">
-      <c r="A22" s="156"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="168"/>
-      <c r="N22" s="168"/>
-      <c r="O22" s="168"/>
-      <c r="P22" s="168"/>
-      <c r="Q22" s="168"/>
-      <c r="R22" s="168"/>
-      <c r="S22" s="168"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="177"/>
+      <c r="S22" s="177"/>
     </row>
     <row r="23" spans="1:19" ht="18">
       <c r="A23" s="33"/>
@@ -17179,12 +17194,12 @@
       <c r="R23" s="2"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="35.25">
-      <c r="A24" s="169" t="s">
+    <row r="24" spans="1:19" ht="35">
+      <c r="A24" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
       <c r="D24" s="26" t="str">
         <f>'Taak 1_5'!B37</f>
         <v>Mnr J S Joubert</v>
@@ -17204,8 +17219,8 @@
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="36"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="169"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
       <c r="N24" s="1"/>
       <c r="O24" s="24"/>
       <c r="P24" s="1"/>
@@ -17265,10 +17280,10 @@
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="D28" s="130" t="s">
+      <c r="D28" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="130"/>
+      <c r="E28" s="137"/>
       <c r="F28" s="26"/>
       <c r="G28" s="25" t="s">
         <v>3</v>
@@ -17278,8 +17293,8 @@
       <c r="J28" s="36"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="130"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="137"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="25"/>
       <c r="R28" s="33"/>
@@ -17328,6 +17343,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="L21:S21"/>
+    <mergeCell ref="L22:S22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="L18:S18"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A21:I21"/>
@@ -17337,20 +17366,6 @@
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="A18:I18"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="L18:S18"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="L21:S21"/>
-    <mergeCell ref="L22:S22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17362,15 +17377,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A83A0F5AF8C424EA5FEF3AB33A15D54" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75d936fb32e694c3cc22851bb792f91f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77ca57f3-f8d2-4a58-a2e5-ff9d774d27c2" xmlns:ns3="0b7ffa40-addb-4162-b3fb-aa51d9308391" xmlns:ns4="728f39ad-81e7-4f54-8c90-bf71e0a0cae3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e522b639bfd76cfb65ff5d7d09457af4" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="77ca57f3-f8d2-4a58-a2e5-ff9d774d27c2"/>
@@ -17618,15 +17624,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE5AC49-611F-46BD-9F5D-ABA8609AAB3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50DA4852-2F31-4A60-BF9E-5E5738226F66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17644,4 +17651,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE5AC49-611F-46BD-9F5D-ABA8609AAB3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ZWK-PAT/PAT 2023/FASE 2/VOOLOPIGE FASE2/25 Sept/IT1015 - Marlu Potgieter_PAT Merkrubriek_2023.xlsx
+++ b/ZWK-PAT/PAT 2023/FASE 2/VOOLOPIGE FASE2/25 Sept/IT1015 - Marlu Potgieter_PAT Merkrubriek_2023.xlsx
@@ -1980,14 +1980,17 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2002,13 +2005,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2016,10 +2031,16 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2037,59 +2058,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2103,26 +2103,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2139,26 +2136,23 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2172,14 +2166,20 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2507,7 +2507,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2709,15 +2709,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2776,15 +2776,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2843,15 +2843,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2910,15 +2910,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2977,15 +2977,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3044,7 +3044,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3111,7 +3111,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3178,7 +3178,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3245,7 +3245,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3312,7 +3312,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3379,7 +3379,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3387,7 +3387,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>395288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3446,7 +3446,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3454,7 +3454,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>395288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3513,7 +3513,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3521,7 +3521,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>395288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3580,7 +3580,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3588,7 +3588,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>395288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3647,7 +3647,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3655,7 +3655,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>395288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3714,7 +3714,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3722,7 +3722,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3781,7 +3781,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3789,7 +3789,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3848,7 +3848,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3856,7 +3856,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3915,7 +3915,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3923,7 +3923,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3982,7 +3982,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3990,7 +3990,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4049,7 +4049,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4116,7 +4116,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4183,7 +4183,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4250,7 +4250,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4317,7 +4317,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4384,7 +4384,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4451,7 +4451,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4518,7 +4518,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4585,7 +4585,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4652,7 +4652,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4719,7 +4719,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4786,7 +4786,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4853,7 +4853,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4920,7 +4920,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4987,7 +4987,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5054,7 +5054,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5121,7 +5121,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5188,7 +5188,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5255,7 +5255,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5322,13 +5322,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5389,13 +5389,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5456,13 +5456,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5523,13 +5523,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5590,13 +5590,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5657,7 +5657,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5724,7 +5724,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5791,7 +5791,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5858,7 +5858,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5925,7 +5925,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5992,7 +5992,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6059,7 +6059,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6126,7 +6126,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6193,7 +6193,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6260,7 +6260,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6332,13 +6332,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6399,13 +6399,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6466,13 +6466,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6533,13 +6533,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6600,13 +6600,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6667,13 +6667,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6734,13 +6734,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6801,13 +6801,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6868,13 +6868,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6935,13 +6935,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7002,13 +7002,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7069,13 +7069,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7136,13 +7136,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7203,13 +7203,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7270,13 +7270,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7337,13 +7337,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7404,13 +7404,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7471,13 +7471,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7538,13 +7538,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7605,13 +7605,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7672,7 +7672,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -7739,7 +7739,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -7806,7 +7806,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -7873,7 +7873,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -7940,7 +7940,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8007,7 +8007,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8074,7 +8074,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8141,7 +8141,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8208,7 +8208,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8275,7 +8275,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8342,7 +8342,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8409,7 +8409,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8476,7 +8476,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8543,7 +8543,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8610,7 +8610,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8677,7 +8677,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -8744,13 +8744,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>90488</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8813,13 +8813,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8878,13 +8878,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>90488</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8945,15 +8945,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>566738</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>90488</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9012,13 +9012,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>90488</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9081,13 +9081,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9146,13 +9146,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>90488</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9213,15 +9213,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>566738</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>90488</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9280,7 +9280,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9347,7 +9347,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9414,7 +9414,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9481,7 +9481,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9548,7 +9548,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9615,7 +9615,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -9682,7 +9682,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -9754,15 +9754,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>584200</xdr:colOff>
+          <xdr:colOff>585788</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>261938</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9823,13 +9823,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>52388</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9888,7 +9888,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -9955,15 +9955,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>566738</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10022,15 +10022,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>909638</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>52388</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10089,15 +10089,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>584200</xdr:colOff>
+          <xdr:colOff>585788</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>908050</xdr:rowOff>
+          <xdr:rowOff>909638</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>222250</xdr:rowOff>
+          <xdr:rowOff>223838</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10162,7 +10162,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>869950</xdr:colOff>
+          <xdr:colOff>871538</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -10223,15 +10223,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>566738</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10296,7 +10296,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>869950</xdr:colOff>
+          <xdr:colOff>871538</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -10357,7 +10357,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -10424,7 +10424,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -10491,7 +10491,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -10560,13 +10560,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1238250</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>261938</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10692,15 +10692,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>909638</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>52388</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10759,15 +10759,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>909638</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>52388</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10828,11 +10828,11 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>869950</xdr:colOff>
+          <xdr:colOff>871538</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -10893,13 +10893,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>909638</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -10960,13 +10960,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>909638</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -11027,13 +11027,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>909638</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -11094,13 +11094,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>909638</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -11508,13 +11508,13 @@
       <selection activeCell="A37" sqref="A37:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="19.23046875" style="1" customWidth="1"/>
-    <col min="2" max="6" width="15.765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.3046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.84375" style="36"/>
+    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
+    <col min="2" max="6" width="15.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.27734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -11524,10 +11524,10 @@
       <c r="B1" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="146" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="118"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="106" t="s">
         <v>189</v>
       </c>
@@ -11565,7 +11565,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="130" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -11583,17 +11583,17 @@
       <c r="F3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="121">
+      <c r="G3" s="122">
         <v>4</v>
       </c>
-      <c r="H3" s="123">
+      <c r="H3" s="124">
         <f>IF(B4=TRUE,4,IF(C4=TRUE,3,IF(D4=TRUE,2,IF(E4=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I3" s="119"/>
+      <c r="I3" s="128"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="126"/>
+      <c r="A4" s="121"/>
       <c r="B4" s="11" t="b">
         <v>1</v>
       </c>
@@ -11607,9 +11607,9 @@
         <v>0</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="120"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="129"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -11634,8 +11634,8 @@
       <c r="H5" s="9"/>
       <c r="I5" s="44"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="156">
-      <c r="A6" s="127" t="s">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="153">
+      <c r="A6" s="119" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="61" t="s">
@@ -11653,18 +11653,18 @@
       <c r="F6" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="121">
+      <c r="G6" s="122">
         <v>4</v>
       </c>
-      <c r="H6" s="123">
+      <c r="H6" s="124">
         <f>IF(B7=TRUE,4,IF(C7=TRUE,3,IF(D7=TRUE,2,IF(E7=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="143"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="118"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A7" s="126"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="11" t="b">
         <v>1</v>
       </c>
@@ -11678,10 +11678,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="143"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="118"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
@@ -11706,8 +11706,8 @@
       <c r="H8" s="99"/>
       <c r="I8" s="102"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="65">
-      <c r="A9" s="145" t="s">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="63.75">
+      <c r="A9" s="126" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="61" t="s">
@@ -11725,19 +11725,19 @@
       <c r="F9" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="121">
+      <c r="G9" s="122">
         <v>4</v>
       </c>
-      <c r="H9" s="123">
+      <c r="H9" s="124">
         <f>IF(B10=TRUE,4,IF(C10=TRUE,3,IF(D10=TRUE,2,IF(E10=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I9" s="119"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="142"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="132"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A10" s="146"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="69" t="b">
         <v>1</v>
       </c>
@@ -11753,13 +11753,13 @@
       <c r="F10" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="122"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="142"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="132"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="26">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="25.5">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -11783,7 +11783,7 @@
       <c r="I11" s="102"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="130" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -11801,19 +11801,19 @@
       <c r="F12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="121">
+      <c r="G12" s="122">
         <v>4</v>
       </c>
-      <c r="H12" s="123">
+      <c r="H12" s="124">
         <f>IF(B13=TRUE,4,IF(C13=TRUE,3,IF(D13=TRUE,2,IF(E13=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I12" s="119"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="129"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="134"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="126"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="69" t="b">
         <v>1</v>
       </c>
@@ -11829,11 +11829,11 @@
       <c r="F13" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="129"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="134"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A14" s="5" t="s">
@@ -11859,7 +11859,7 @@
       <c r="I14" s="102"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="119" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -11877,19 +11877,19 @@
       <c r="F15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="121">
+      <c r="G15" s="122">
         <v>4</v>
       </c>
-      <c r="H15" s="123">
+      <c r="H15" s="124">
         <f>IF(B16=TRUE,4,IF(C16=TRUE,3,IF(D16=TRUE,2,IF(E16=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I15" s="119"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="129"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="134"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A16" s="144"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="13" t="b">
         <v>1</v>
       </c>
@@ -11905,11 +11905,11 @@
       <c r="F16" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="122"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="129"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="134"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A17" s="5" t="s">
@@ -11935,7 +11935,7 @@
       <c r="I17" s="102"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="119" t="s">
         <v>139</v>
       </c>
       <c r="B18" s="97" t="s">
@@ -11953,18 +11953,18 @@
       <c r="F18" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="121">
+      <c r="G18" s="122">
         <v>4</v>
       </c>
-      <c r="H18" s="139">
+      <c r="H18" s="137">
         <f>IF(B19=TRUE,4,IF(C19=TRUE,3,IF(D19=TRUE,2,IF(E19=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I18" s="119"/>
+      <c r="I18" s="128"/>
       <c r="J18" s="71"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A19" s="144"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="13" t="b">
         <v>1</v>
       </c>
@@ -11980,9 +11980,9 @@
       <c r="F19" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="138"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="120"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="129"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A20" s="7" t="s">
@@ -12008,7 +12008,7 @@
       <c r="I20" s="102"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A21" s="127" t="s">
+      <c r="A21" s="119" t="s">
         <v>156</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -12026,19 +12026,19 @@
       <c r="F21" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G21" s="121">
+      <c r="G21" s="122">
         <v>4</v>
       </c>
-      <c r="H21" s="123">
+      <c r="H21" s="124">
         <f>IF(B22=TRUE,4,IF(C22=TRUE,3,IF(D22=TRUE,2,IF(E22=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I21" s="119"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="142"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="132"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A22" s="126"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="13" t="b">
         <v>1</v>
       </c>
@@ -12052,14 +12052,14 @@
       <c r="F22" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="122"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="142"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="132"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="111.75" customHeight="1">
-      <c r="A23" s="127" t="s">
+      <c r="A23" s="119" t="s">
         <v>162</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -12077,17 +12077,17 @@
       <c r="F23" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G23" s="121">
+      <c r="G23" s="122">
         <v>4</v>
       </c>
-      <c r="H23" s="123">
+      <c r="H23" s="124">
         <f>IF(B24=TRUE,4,IF(C24=TRUE,3,IF(D24=TRUE,2,IF(E24=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I23" s="119"/>
+      <c r="I23" s="128"/>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A24" s="126"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="13" t="b">
         <v>1</v>
       </c>
@@ -12101,12 +12101,12 @@
         <v>0</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="120"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="129"/>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="98.25" customHeight="1">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="130" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="64" t="s">
@@ -12124,17 +12124,17 @@
       <c r="F25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="121">
+      <c r="G25" s="122">
         <v>4</v>
       </c>
-      <c r="H25" s="123">
+      <c r="H25" s="124">
         <f>IF(B26=TRUE,4,IF(C26=TRUE,3,IF(D26=TRUE,2,IF(E26=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I25" s="119"/>
+      <c r="I25" s="128"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A26" s="126"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="13" t="b">
         <v>1</v>
       </c>
@@ -12148,12 +12148,12 @@
       <c r="F26" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="122"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="120"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="129"/>
     </row>
     <row r="27" spans="1:11" ht="96" customHeight="1">
-      <c r="A27" s="127" t="s">
+      <c r="A27" s="119" t="s">
         <v>164</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -12171,17 +12171,17 @@
       <c r="F27" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G27" s="121">
+      <c r="G27" s="122">
         <v>4</v>
       </c>
-      <c r="H27" s="123">
+      <c r="H27" s="124">
         <f>IF(B28=TRUE,4,IF(C28=TRUE,3,IF(D28=TRUE,2,IF(E28=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I27" s="130"/>
+      <c r="I27" s="144"/>
     </row>
     <row r="28" spans="1:11" ht="39" customHeight="1">
-      <c r="A28" s="126"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="13" t="b">
         <v>1</v>
       </c>
@@ -12195,19 +12195,19 @@
       <c r="F28" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="122"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="131"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="145"/>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="136"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="143"/>
       <c r="G29" s="10">
         <f>SUM(G3:G28)</f>
         <v>40</v>
@@ -12226,28 +12226,28 @@
       <c r="H30" s="85"/>
     </row>
     <row r="31" spans="1:11" ht="27" customHeight="1">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
     </row>
     <row r="32" spans="1:11" ht="57.75" customHeight="1">
-      <c r="A32" s="133" t="s">
+      <c r="A32" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
     </row>
     <row r="33" spans="1:8" ht="33.75" customHeight="1">
       <c r="A33" s="1" t="s">
@@ -12280,7 +12280,7 @@
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
     </row>
-    <row r="37" spans="1:8" ht="62">
+    <row r="37" spans="1:8" ht="60">
       <c r="A37" s="115" t="s">
         <v>2</v>
       </c>
@@ -12315,10 +12315,10 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="137"/>
+      <c r="C41" s="135"/>
       <c r="D41" s="26"/>
       <c r="E41" s="25" t="s">
         <v>3</v>
@@ -12337,6 +12337,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A15:A16"/>
@@ -12352,41 +12386,7 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="J9:K10"/>
     <mergeCell ref="J12:K13"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
     <mergeCell ref="J15:K16"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J21:K22"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -12410,15 +12410,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12432,15 +12432,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12454,15 +12454,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12476,15 +12476,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12498,15 +12498,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12520,7 +12520,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12542,7 +12542,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12564,7 +12564,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12586,7 +12586,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12608,7 +12608,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12630,7 +12630,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12638,7 +12638,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>393700</xdr:rowOff>
+                    <xdr:rowOff>395288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12652,7 +12652,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12660,7 +12660,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>393700</xdr:rowOff>
+                    <xdr:rowOff>395288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12674,7 +12674,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12682,7 +12682,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>393700</xdr:rowOff>
+                    <xdr:rowOff>395288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12696,7 +12696,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12704,7 +12704,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>393700</xdr:rowOff>
+                    <xdr:rowOff>395288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12718,7 +12718,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12726,7 +12726,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>393700</xdr:rowOff>
+                    <xdr:rowOff>395288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12740,7 +12740,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12748,7 +12748,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12762,7 +12762,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12770,7 +12770,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12784,7 +12784,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12792,7 +12792,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12806,7 +12806,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12814,7 +12814,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12828,7 +12828,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12836,7 +12836,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12850,7 +12850,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12872,7 +12872,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12894,7 +12894,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12916,7 +12916,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12938,7 +12938,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12960,7 +12960,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12982,7 +12982,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13004,7 +13004,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13026,7 +13026,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13048,7 +13048,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13070,7 +13070,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13092,7 +13092,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13114,7 +13114,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13136,7 +13136,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13158,7 +13158,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13180,7 +13180,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13202,7 +13202,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13224,7 +13224,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13246,7 +13246,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13268,13 +13268,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13290,13 +13290,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13312,13 +13312,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13334,13 +13334,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13356,13 +13356,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13378,7 +13378,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13400,7 +13400,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13422,7 +13422,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13444,7 +13444,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13466,7 +13466,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13488,7 +13488,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13510,7 +13510,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13532,7 +13532,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13554,7 +13554,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13576,7 +13576,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13601,18 +13601,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="22.53515625" customWidth="1"/>
-    <col min="2" max="2" width="16.84375" customWidth="1"/>
-    <col min="3" max="5" width="15.765625" customWidth="1"/>
-    <col min="6" max="6" width="13.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.765625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.84375" style="84"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -13622,11 +13622,11 @@
       <c r="B1" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="118" t="str">
+      <c r="C1" s="146" t="str">
         <f>'Taak 1_5'!C1</f>
         <v>Marlu Potgieter</v>
       </c>
-      <c r="D1" s="118"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="106" t="s">
         <v>195</v>
       </c>
@@ -13664,8 +13664,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="39">
-      <c r="A3" s="125" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="38.25">
+      <c r="A3" s="130" t="s">
         <v>179</v>
       </c>
       <c r="B3" s="61" t="s">
@@ -13683,22 +13683,22 @@
       <c r="F3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="121">
+      <c r="G3" s="122">
         <v>4</v>
       </c>
-      <c r="H3" s="153">
+      <c r="H3" s="152">
         <f>IF(B4=TRUE,4,IF(C4=TRUE,3,IF(D4=TRUE,2,IF(E4=TRUE,1,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="I3" s="150"/>
+        <v>3</v>
+      </c>
+      <c r="I3" s="154"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A4" s="144"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="13" t="b">
         <v>0</v>
       </c>
       <c r="C4" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="13" t="b">
         <v>1</v>
@@ -13707,9 +13707,9 @@
         <v>0</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="150"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="154"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="34" t="s">
@@ -13735,7 +13735,7 @@
       <c r="I5" s="102"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="130" t="s">
         <v>178</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -13753,17 +13753,17 @@
       <c r="F6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="121">
+      <c r="G6" s="122">
         <v>4</v>
       </c>
-      <c r="H6" s="153">
+      <c r="H6" s="152">
         <f>IF(B7=TRUE,4,IF(C7=TRUE,3,IF(D7=TRUE,2,IF(E7=TRUE,1,0))))</f>
         <v>3</v>
       </c>
-      <c r="I6" s="182"/>
+      <c r="I6" s="153"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A7" s="144"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="13" t="b">
         <v>0</v>
       </c>
@@ -13777,9 +13777,9 @@
         <v>0</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="182"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="153"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
@@ -13805,7 +13805,7 @@
       <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="119" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -13823,17 +13823,17 @@
       <c r="F9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="121">
+      <c r="G9" s="122">
         <v>4</v>
       </c>
-      <c r="H9" s="153">
+      <c r="H9" s="152">
         <f>IF(B10=TRUE,4,IF(C10=TRUE,3,IF(D10=TRUE,2,IF(E10=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I9" s="150"/>
+      <c r="I9" s="154"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A10" s="144"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="13" t="b">
         <v>1</v>
       </c>
@@ -13847,9 +13847,9 @@
         <v>0</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="150"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="154"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="84" customHeight="1">
       <c r="A11" s="155" t="s">
@@ -13870,15 +13870,15 @@
       <c r="F11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="121">
+      <c r="G11" s="122">
         <v>4</v>
       </c>
-      <c r="H11" s="153">
+      <c r="H11" s="152">
         <f>IF(B12=TRUE,4,IF(C12=TRUE,3,IF(D12=TRUE,2,IF(E12=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I11" s="150"/>
-      <c r="J11" s="143"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="118"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="A12" s="156"/>
@@ -13893,10 +13893,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="143"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A13" s="157" t="s">
@@ -13917,15 +13917,15 @@
       <c r="F13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="121">
+      <c r="G13" s="122">
         <v>4</v>
       </c>
-      <c r="H13" s="153">
+      <c r="H13" s="152">
         <f>IF(B14=TRUE,4,IF(C14=TRUE,3,IF(D14=TRUE,2,IF(E14=TRUE,1,0))))</f>
         <v>3</v>
       </c>
-      <c r="I13" s="182"/>
-      <c r="J13" s="143"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="118"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="158"/>
@@ -13942,13 +13942,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="13"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="143"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="96.75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="119" t="s">
         <v>171</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -13966,17 +13966,17 @@
       <c r="F15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="121">
+      <c r="G15" s="122">
         <v>4</v>
       </c>
-      <c r="H15" s="153">
+      <c r="H15" s="152">
         <f>IF(B16=TRUE,4,IF(C16=TRUE,3,IF(D16=TRUE,2,IF(E16=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I15" s="150"/>
+      <c r="I15" s="154"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A16" s="144"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="13" t="b">
         <v>1</v>
       </c>
@@ -13990,12 +13990,12 @@
         <v>0</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="150"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="154"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="130" t="s">
         <v>172</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -14013,17 +14013,17 @@
       <c r="F17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="121">
+      <c r="G17" s="122">
         <v>4</v>
       </c>
-      <c r="H17" s="153">
+      <c r="H17" s="152">
         <f>IF(B18=TRUE,4,IF(C18=TRUE,3,IF(D18=TRUE,2,IF(E18=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I17" s="150"/>
+      <c r="I17" s="154"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A18" s="126"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="13" t="b">
         <v>1</v>
       </c>
@@ -14039,11 +14039,11 @@
       <c r="F18" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="122"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="150"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="154"/>
     </row>
-    <row r="19" spans="1:10" ht="26">
+    <row r="19" spans="1:10" ht="26.25">
       <c r="A19" s="37" t="s">
         <v>71</v>
       </c>
@@ -14066,8 +14066,8 @@
       <c r="H19" s="79"/>
       <c r="I19" s="41"/>
     </row>
-    <row r="20" spans="1:10" s="16" customFormat="1" ht="104">
-      <c r="A20" s="154" t="s">
+    <row r="20" spans="1:10" s="16" customFormat="1" ht="102">
+      <c r="A20" s="164" t="s">
         <v>64</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -14085,17 +14085,17 @@
       <c r="F20" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="121">
+      <c r="G20" s="122">
         <v>4</v>
       </c>
-      <c r="H20" s="153">
+      <c r="H20" s="152">
         <f>IF(B21=TRUE,4,IF(C21=TRUE,3,IF(D21=TRUE,2,IF(E21=TRUE,1,0))))</f>
         <v>2</v>
       </c>
-      <c r="I20" s="183"/>
+      <c r="I20" s="147"/>
     </row>
-    <row r="21" spans="1:10" s="16" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A21" s="154"/>
+    <row r="21" spans="1:10" s="16" customFormat="1" ht="23.2" customHeight="1">
+      <c r="A21" s="164"/>
       <c r="B21" s="46" t="b">
         <v>0</v>
       </c>
@@ -14111,12 +14111,12 @@
       <c r="F21" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="122"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="184"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="148"/>
     </row>
-    <row r="22" spans="1:10" s="16" customFormat="1" ht="52">
-      <c r="A22" s="161" t="s">
+    <row r="22" spans="1:10" s="16" customFormat="1" ht="51">
+      <c r="A22" s="151" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14134,17 +14134,17 @@
       <c r="F22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="121">
+      <c r="G22" s="122">
         <v>4</v>
       </c>
-      <c r="H22" s="153">
+      <c r="H22" s="152">
         <f>IF(B23=TRUE,4,IF(C23=TRUE,3,IF(D23=TRUE,2,IF(E23=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I22" s="159"/>
+      <c r="I22" s="149"/>
     </row>
-    <row r="23" spans="1:10" s="16" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A23" s="161"/>
+    <row r="23" spans="1:10" s="16" customFormat="1" ht="23.2" customHeight="1">
+      <c r="A23" s="151"/>
       <c r="B23" s="46" t="b">
         <v>1</v>
       </c>
@@ -14160,9 +14160,9 @@
       <c r="F23" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="122"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="160"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="150"/>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
@@ -14187,8 +14187,8 @@
       <c r="H24" s="98"/>
       <c r="I24" s="102"/>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="117">
-      <c r="A25" s="125" t="s">
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="102">
+      <c r="A25" s="130" t="s">
         <v>88</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -14206,18 +14206,18 @@
       <c r="F25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="121">
+      <c r="G25" s="122">
         <v>4</v>
       </c>
-      <c r="H25" s="153">
+      <c r="H25" s="152">
         <f>IF(B26=TRUE,4,IF(C26=TRUE,3,IF(D26=TRUE,2,IF(E26=TRUE,1,0))))</f>
         <v>2</v>
       </c>
-      <c r="I25" s="150"/>
-      <c r="J25" s="143"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="118"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A26" s="126"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="13" t="b">
         <v>0</v>
       </c>
@@ -14233,27 +14233,27 @@
       <c r="F26" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G26" s="122"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="143"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="118"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A27" s="147" t="s">
+      <c r="A27" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="148"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="149"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="161"/>
       <c r="G27" s="10">
         <f>SUM(G2:G26)</f>
         <v>40</v>
       </c>
       <c r="H27" s="101">
         <f>SUM(H2:H26)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I27" s="103">
         <f>SUM(I2:I26)</f>
@@ -14263,29 +14263,29 @@
     <row r="28" spans="1:10">
       <c r="I28" s="40"/>
     </row>
-    <row r="29" spans="1:10" ht="20">
-      <c r="A29" s="132" t="s">
+    <row r="29" spans="1:10" ht="20.25">
+      <c r="A29" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
     </row>
     <row r="30" spans="1:10" ht="58.5" customHeight="1">
-      <c r="A30" s="133" t="s">
+      <c r="A30" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="133"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
@@ -14300,24 +14300,24 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1">
-      <c r="A32" s="152"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
+      <c r="A32" s="163"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
     </row>
     <row r="33" spans="1:9" ht="27" customHeight="1">
-      <c r="A33" s="151"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
+      <c r="A33" s="162"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="162"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="33"/>
@@ -14330,7 +14330,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="36"/>
     </row>
-    <row r="35" spans="1:9" ht="35">
+    <row r="35" spans="1:9" ht="34.5">
       <c r="A35" s="24" t="s">
         <v>2</v>
       </c>
@@ -14399,10 +14399,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1"/>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="137"/>
+      <c r="C39" s="135"/>
       <c r="D39" s="26"/>
       <c r="E39" s="25" t="s">
         <v>3</v>
@@ -14440,24 +14440,22 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J25:J26"/>
@@ -14474,22 +14472,24 @@
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -14508,13 +14508,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14530,13 +14530,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14552,13 +14552,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14574,13 +14574,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14596,13 +14596,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14618,13 +14618,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14640,13 +14640,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14662,13 +14662,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14684,13 +14684,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14706,13 +14706,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14728,13 +14728,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14750,13 +14750,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14772,13 +14772,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14794,13 +14794,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14816,13 +14816,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14838,13 +14838,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14860,13 +14860,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14882,13 +14882,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14904,13 +14904,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14926,13 +14926,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14948,7 +14948,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -14970,7 +14970,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -14992,7 +14992,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15014,7 +15014,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15036,7 +15036,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15058,7 +15058,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15080,7 +15080,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15102,7 +15102,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15124,7 +15124,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15146,7 +15146,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15168,7 +15168,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15190,7 +15190,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15212,7 +15212,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15234,7 +15234,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15256,7 +15256,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15278,7 +15278,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -15300,13 +15300,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>90488</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15324,13 +15324,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>647700</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>280988</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15344,13 +15344,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>90488</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15366,15 +15366,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>566738</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>90488</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>280988</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15388,13 +15388,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>90488</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15412,13 +15412,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>647700</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>280988</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15432,13 +15432,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>90488</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15454,15 +15454,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>566738</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>90488</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>280988</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15476,7 +15476,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15498,7 +15498,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15520,7 +15520,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15542,7 +15542,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15564,7 +15564,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15586,7 +15586,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -15608,7 +15608,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -15637,30 +15637,30 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.23046875" customWidth="1"/>
-    <col min="2" max="2" width="15.23046875" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="6" width="15.23046875" customWidth="1"/>
-    <col min="7" max="7" width="3.765625" customWidth="1"/>
-    <col min="8" max="8" width="8.23046875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="3.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="166" t="s">
+    <row r="1" spans="1:9" ht="17.649999999999999">
+      <c r="A1" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="118" t="str">
+      <c r="D1" s="146" t="str">
         <f>'Taak 1_5'!C1</f>
         <v>Marlu Potgieter</v>
       </c>
-      <c r="E1" s="118"/>
+      <c r="E1" s="146"/>
       <c r="F1" s="110" t="s">
         <v>195</v>
       </c>
@@ -15698,7 +15698,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="58" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="166" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="72" t="s">
@@ -15716,17 +15716,17 @@
       <c r="F3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="121">
+      <c r="G3" s="122">
         <v>4</v>
       </c>
-      <c r="H3" s="123">
+      <c r="H3" s="124">
         <f>IF(B4=TRUE,$B$2,IF(C4=TRUE,$C$2,IF(D4=TRUE,$D$2,IF(E4=TRUE,$E$2,0))))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="159"/>
+      <c r="I3" s="149"/>
     </row>
-    <row r="4" spans="1:9" s="58" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A4" s="168"/>
+    <row r="4" spans="1:9" s="58" customFormat="1" ht="23.2" customHeight="1">
+      <c r="A4" s="167"/>
       <c r="B4" s="59" t="b">
         <v>0</v>
       </c>
@@ -15742,9 +15742,9 @@
       <c r="F4" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="122"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="160"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="150"/>
     </row>
     <row r="5" spans="1:9" s="58" customFormat="1" ht="81" customHeight="1">
       <c r="A5" s="74" t="s">
@@ -15765,16 +15765,16 @@
       <c r="F5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="121">
+      <c r="G5" s="122">
         <v>4</v>
       </c>
-      <c r="H5" s="123">
+      <c r="H5" s="124">
         <f t="shared" ref="H5" si="0">IF(B6=TRUE,$B$2,IF(C6=TRUE,$C$2,IF(D6=TRUE,$D$2,IF(E6=TRUE,$E$2,0))))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="159"/>
+      <c r="I5" s="149"/>
     </row>
-    <row r="6" spans="1:9" s="58" customFormat="1" ht="23.15" customHeight="1">
+    <row r="6" spans="1:9" s="58" customFormat="1" ht="23.2" customHeight="1">
       <c r="A6" s="73"/>
       <c r="B6" s="59" t="b">
         <v>0</v>
@@ -15791,12 +15791,12 @@
       <c r="F6" s="66" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="122"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="160"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="150"/>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="78">
-      <c r="A7" s="162" t="s">
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="76.5">
+      <c r="A7" s="170" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="77" t="s">
@@ -15814,17 +15814,17 @@
       <c r="F7" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="121">
+      <c r="G7" s="122">
         <v>4</v>
       </c>
-      <c r="H7" s="123">
+      <c r="H7" s="124">
         <f t="shared" ref="H7" si="1">IF(B8=TRUE,$B$2,IF(C8=TRUE,$C$2,IF(D8=TRUE,$D$2,IF(E8=TRUE,$E$2,0))))</f>
         <v>0</v>
       </c>
-      <c r="I7" s="159"/>
+      <c r="I7" s="149"/>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A8" s="162"/>
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="23.2" customHeight="1">
+      <c r="A8" s="170"/>
       <c r="B8" s="75" t="b">
         <v>0</v>
       </c>
@@ -15838,9 +15838,9 @@
         <v>0</v>
       </c>
       <c r="F8" s="67"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="160"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="150"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1">
       <c r="A9" s="104" t="s">
@@ -15866,7 +15866,7 @@
       <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="168" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="72" t="s">
@@ -15884,17 +15884,17 @@
       <c r="F10" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="121">
+      <c r="G10" s="122">
         <v>8</v>
       </c>
-      <c r="H10" s="123">
+      <c r="H10" s="124">
         <f>IF(B11=TRUE,$B$9,IF(C11=TRUE,$C$9,IF(D11=TRUE,$D$9,IF(E11=TRUE,$E$9,0))))</f>
         <v>0</v>
       </c>
-      <c r="I10" s="159"/>
+      <c r="I10" s="149"/>
     </row>
-    <row r="11" spans="1:9" s="16" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A11" s="170"/>
+    <row r="11" spans="1:9" s="16" customFormat="1" ht="23.2" customHeight="1">
+      <c r="A11" s="169"/>
       <c r="B11" s="60" t="b">
         <v>0</v>
       </c>
@@ -15908,19 +15908,19 @@
         <v>0</v>
       </c>
       <c r="F11" s="60"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="160"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="150"/>
     </row>
-    <row r="12" spans="1:9" ht="18">
-      <c r="A12" s="163" t="s">
+    <row r="12" spans="1:9" ht="17.649999999999999">
+      <c r="A12" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="165"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="173"/>
       <c r="G12" s="35">
         <f>SUM(G3:G11)</f>
         <v>20</v>
@@ -15938,30 +15938,30 @@
       <c r="A14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="51.75" customHeight="1">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
     </row>
-    <row r="17" spans="1:9" ht="18">
+    <row r="17" spans="1:9" ht="17.649999999999999">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -15974,26 +15974,26 @@
       <c r="H17" s="78"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="152"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
+      <c r="A18" s="163"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="151"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
     </row>
-    <row r="20" spans="1:9" ht="18">
+    <row r="20" spans="1:9" ht="17.649999999999999">
       <c r="A20" s="33"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -16004,7 +16004,7 @@
       <c r="H20" s="78"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="35">
+    <row r="21" spans="1:9" ht="34.5">
       <c r="A21" s="24" t="s">
         <v>2</v>
       </c>
@@ -16029,7 +16029,7 @@
       <c r="H21" s="78"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" ht="18">
+    <row r="22" spans="1:9" ht="17.649999999999999">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -16060,7 +16060,7 @@
       <c r="H23" s="78"/>
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="1:9" ht="18">
+    <row r="24" spans="1:9" ht="17.649999999999999">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -16071,12 +16071,12 @@
       <c r="H24" s="78"/>
       <c r="I24" s="36"/>
     </row>
-    <row r="25" spans="1:9" ht="18">
+    <row r="25" spans="1:9" ht="17.649999999999999">
       <c r="A25" s="1"/>
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="137"/>
+      <c r="C25" s="135"/>
       <c r="D25" s="26"/>
       <c r="E25" s="25" t="s">
         <v>3</v>
@@ -16086,7 +16086,7 @@
       <c r="H25" s="78"/>
       <c r="I25" s="36"/>
     </row>
-    <row r="26" spans="1:9" ht="18">
+    <row r="26" spans="1:9" ht="17.649999999999999">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -16097,7 +16097,7 @@
       <c r="H26" s="78"/>
       <c r="I26" s="36"/>
     </row>
-    <row r="27" spans="1:9" ht="18">
+    <row r="27" spans="1:9" ht="17.649999999999999">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="25" t="s">
@@ -16114,19 +16114,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="G7:G8"/>
@@ -16137,6 +16124,19 @@
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -16158,15 +16158,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>584200</xdr:colOff>
+                    <xdr:colOff>585788</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>261938</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16182,13 +16182,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>647700</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>52388</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>280988</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16202,7 +16202,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -16224,15 +16224,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>566738</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>280988</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16246,15 +16246,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>908050</xdr:colOff>
+                    <xdr:colOff>909638</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>52388</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16268,15 +16268,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>584200</xdr:colOff>
+                    <xdr:colOff>585788</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>908050</xdr:rowOff>
+                    <xdr:rowOff>909638</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>222250</xdr:rowOff>
+                    <xdr:rowOff>223838</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16296,7 +16296,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>869950</xdr:colOff>
+                    <xdr:colOff>871538</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16312,15 +16312,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>566738</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>280988</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16340,7 +16340,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>869950</xdr:colOff>
+                    <xdr:colOff>871538</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </to>
@@ -16356,7 +16356,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -16378,7 +16378,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -16400,7 +16400,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -16424,13 +16424,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1238250</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>261938</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16466,15 +16466,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>908050</xdr:colOff>
+                    <xdr:colOff>909638</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>52388</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16488,15 +16488,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>908050</xdr:colOff>
+                    <xdr:colOff>909638</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>52388</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16512,11 +16512,11 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>552450</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>869950</xdr:colOff>
+                    <xdr:colOff>871538</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -16532,13 +16532,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>908050</xdr:colOff>
+                    <xdr:colOff>909638</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16554,13 +16554,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>908050</xdr:colOff>
+                    <xdr:colOff>909638</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16576,13 +16576,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>908050</xdr:colOff>
+                    <xdr:colOff>909638</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16598,13 +16598,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>908050</xdr:colOff>
+                    <xdr:colOff>909638</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16627,32 +16627,32 @@
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.07421875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.23046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.07421875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.0546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.0546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.0546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.07421875" customWidth="1"/>
-    <col min="14" max="14" width="23.3046875" customWidth="1"/>
-    <col min="15" max="15" width="15.84375" customWidth="1"/>
-    <col min="16" max="16" width="14.3046875" customWidth="1"/>
-    <col min="17" max="17" width="12.53515625" customWidth="1"/>
+    <col min="8" max="8" width="13.0546875" customWidth="1"/>
+    <col min="14" max="14" width="23.27734375" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="14.27734375" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18">
+    <row r="1" spans="1:17" ht="17.649999999999999">
       <c r="A1" s="70" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="87"/>
-      <c r="D1" s="118" t="str">
+      <c r="D1" s="146" t="str">
         <f>'Taak 1_5'!C1</f>
         <v>Marlu Potgieter</v>
       </c>
-      <c r="E1" s="118"/>
+      <c r="E1" s="146"/>
       <c r="F1" s="112" t="s">
         <v>195</v>
       </c>
@@ -16661,22 +16661,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.5" thickBot="1">
-      <c r="B2" s="178" t="s">
+    <row r="2" spans="1:17" ht="18" thickBot="1">
+      <c r="B2" s="176" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
     </row>
-    <row r="3" spans="1:17" s="19" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="3" spans="1:17" s="19" customFormat="1" ht="20.2" customHeight="1" thickBot="1">
       <c r="A3" s="18"/>
       <c r="B3" s="91" t="s">
         <v>120</v>
@@ -16703,9 +16703,9 @@
       <c r="P3" s="48"/>
       <c r="Q3" s="49"/>
     </row>
-    <row r="4" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="4" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A4" s="18"/>
-      <c r="B4" s="179">
+      <c r="B4" s="177">
         <v>1</v>
       </c>
       <c r="C4" s="93" t="s">
@@ -16732,9 +16732,9 @@
       <c r="P4" s="52"/>
       <c r="Q4" s="53"/>
     </row>
-    <row r="5" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="5" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A5" s="18"/>
-      <c r="B5" s="180"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="93" t="s">
         <v>145</v>
       </c>
@@ -16759,9 +16759,9 @@
       <c r="P5" s="52"/>
       <c r="Q5" s="53"/>
     </row>
-    <row r="6" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="6" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A6" s="18"/>
-      <c r="B6" s="180"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="93" t="s">
         <v>146</v>
       </c>
@@ -16786,9 +16786,9 @@
       <c r="P6" s="52"/>
       <c r="Q6" s="53"/>
     </row>
-    <row r="7" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A7" s="18"/>
-      <c r="B7" s="180"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="93" t="s">
         <v>147</v>
       </c>
@@ -16813,9 +16813,9 @@
       <c r="P7" s="52"/>
       <c r="Q7" s="53"/>
     </row>
-    <row r="8" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A8" s="18"/>
-      <c r="B8" s="181"/>
+      <c r="B8" s="179"/>
       <c r="C8" s="93" t="s">
         <v>148</v>
       </c>
@@ -16840,9 +16840,9 @@
       <c r="P8" s="52"/>
       <c r="Q8" s="53"/>
     </row>
-    <row r="9" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="9" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A9" s="18"/>
-      <c r="B9" s="179">
+      <c r="B9" s="177">
         <v>2</v>
       </c>
       <c r="C9" s="93" t="s">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="F9" s="22">
         <f>'Taak 6_10'!H3</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="95">
         <f>'Taak 6_10'!I3</f>
@@ -16869,9 +16869,9 @@
       <c r="P9" s="52"/>
       <c r="Q9" s="54"/>
     </row>
-    <row r="10" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="10" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A10" s="18"/>
-      <c r="B10" s="180"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="93" t="s">
         <v>150</v>
       </c>
@@ -16896,9 +16896,9 @@
       <c r="P10" s="52"/>
       <c r="Q10" s="54"/>
     </row>
-    <row r="11" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="11" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A11" s="18"/>
-      <c r="B11" s="180"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="93" t="s">
         <v>151</v>
       </c>
@@ -16923,9 +16923,9 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="54"/>
     </row>
-    <row r="12" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A12" s="18"/>
-      <c r="B12" s="180"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="93" t="s">
         <v>152</v>
       </c>
@@ -16950,9 +16950,9 @@
       <c r="P12" s="52"/>
       <c r="Q12" s="54"/>
     </row>
-    <row r="13" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="13" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A13" s="18"/>
-      <c r="B13" s="181"/>
+      <c r="B13" s="179"/>
       <c r="C13" s="93" t="s">
         <v>153</v>
       </c>
@@ -16977,7 +16977,7 @@
       <c r="P13" s="52"/>
       <c r="Q13" s="54"/>
     </row>
-    <row r="14" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A14" s="18"/>
       <c r="B14" s="94">
         <v>3</v>
@@ -17006,63 +17006,63 @@
       <c r="P14" s="52"/>
       <c r="Q14" s="54"/>
     </row>
-    <row r="15" spans="1:17" s="19" customFormat="1" ht="25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:17" s="19" customFormat="1" ht="25.05" customHeight="1" thickBot="1">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="172" t="s">
+      <c r="C15" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="172"/>
+      <c r="D15" s="183"/>
       <c r="E15" s="88">
         <f>SUM(E4:E14)</f>
         <v>100</v>
       </c>
       <c r="F15" s="89">
         <f>SUM(F4:F14)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15" s="90">
         <f>SUM(G4:G14)</f>
         <v>0</v>
       </c>
       <c r="L15" s="18"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="181"/>
       <c r="O15" s="55"/>
       <c r="P15" s="56"/>
       <c r="Q15" s="57"/>
     </row>
-    <row r="16" spans="1:17" s="19" customFormat="1" ht="25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:17" s="19" customFormat="1" ht="25.05" customHeight="1" thickBot="1">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="173" t="s">
+      <c r="C16" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
       <c r="F16" s="23">
         <f>ROUND(F15/E15*100,0)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" s="43">
         <f>ROUND(G15/E15*100,0)</f>
         <v>0</v>
       </c>
       <c r="L16" s="18"/>
-      <c r="M16" s="176"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="176"/>
+      <c r="M16" s="182"/>
+      <c r="N16" s="182"/>
+      <c r="O16" s="182"/>
       <c r="P16" s="56"/>
       <c r="Q16" s="57"/>
     </row>
-    <row r="17" spans="1:19" s="19" customFormat="1" ht="25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" s="19" customFormat="1" ht="25.05" customHeight="1" thickBot="1">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="173" t="s">
+      <c r="C17" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="184"/>
       <c r="F17" s="23">
         <f>ROUND(F16/100*25,0)</f>
         <v>18</v>
@@ -17072,55 +17072,55 @@
         <v>0</v>
       </c>
       <c r="L17" s="18"/>
-      <c r="M17" s="176"/>
-      <c r="N17" s="176"/>
-      <c r="O17" s="176"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="182"/>
       <c r="P17" s="56"/>
       <c r="Q17" s="57"/>
     </row>
-    <row r="18" spans="1:19" ht="25" customHeight="1">
-      <c r="A18" s="132" t="s">
+    <row r="18" spans="1:19" ht="25.05" customHeight="1">
+      <c r="A18" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="132"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
     </row>
     <row r="19" spans="1:19" ht="66.75" customHeight="1">
-      <c r="A19" s="133" t="s">
+      <c r="A19" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="133"/>
-      <c r="R19" s="133"/>
-      <c r="S19" s="133"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="140"/>
     </row>
-    <row r="20" spans="1:19" ht="18">
+    <row r="20" spans="1:19" ht="17.649999999999999">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -17137,44 +17137,44 @@
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="152"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
-      <c r="O21" s="177"/>
-      <c r="P21" s="177"/>
-      <c r="Q21" s="177"/>
-      <c r="R21" s="177"/>
-      <c r="S21" s="177"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="L21" s="174"/>
+      <c r="M21" s="174"/>
+      <c r="N21" s="174"/>
+      <c r="O21" s="174"/>
+      <c r="P21" s="174"/>
+      <c r="Q21" s="174"/>
+      <c r="R21" s="174"/>
+      <c r="S21" s="174"/>
     </row>
     <row r="22" spans="1:19" ht="24" customHeight="1">
-      <c r="A22" s="151"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="L22" s="177"/>
-      <c r="M22" s="177"/>
-      <c r="N22" s="177"/>
-      <c r="O22" s="177"/>
-      <c r="P22" s="177"/>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="177"/>
-      <c r="S22" s="177"/>
+      <c r="A22" s="162"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="L22" s="174"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="174"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="174"/>
+      <c r="R22" s="174"/>
+      <c r="S22" s="174"/>
     </row>
-    <row r="23" spans="1:19" ht="18">
+    <row r="23" spans="1:19" ht="17.649999999999999">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="32"/>
@@ -17194,12 +17194,12 @@
       <c r="R23" s="2"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="35">
-      <c r="A24" s="171" t="s">
+    <row r="24" spans="1:19" ht="34.5">
+      <c r="A24" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="175"/>
       <c r="D24" s="26" t="str">
         <f>'Taak 1_5'!B37</f>
         <v>Mnr J S Joubert</v>
@@ -17219,8 +17219,8 @@
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="36"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="171"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="175"/>
       <c r="N24" s="1"/>
       <c r="O24" s="24"/>
       <c r="P24" s="1"/>
@@ -17280,10 +17280,10 @@
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="D28" s="137" t="s">
+      <c r="D28" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="137"/>
+      <c r="E28" s="135"/>
       <c r="F28" s="26"/>
       <c r="G28" s="25" t="s">
         <v>3</v>
@@ -17293,8 +17293,8 @@
       <c r="J28" s="36"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="25"/>
       <c r="R28" s="33"/>
@@ -17343,20 +17343,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="L21:S21"/>
-    <mergeCell ref="L22:S22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="L18:S18"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A21:I21"/>
@@ -17366,6 +17352,20 @@
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="A18:I18"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="L18:S18"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="L21:S21"/>
+    <mergeCell ref="L22:S22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17377,6 +17377,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A83A0F5AF8C424EA5FEF3AB33A15D54" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75d936fb32e694c3cc22851bb792f91f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77ca57f3-f8d2-4a58-a2e5-ff9d774d27c2" xmlns:ns3="0b7ffa40-addb-4162-b3fb-aa51d9308391" xmlns:ns4="728f39ad-81e7-4f54-8c90-bf71e0a0cae3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e522b639bfd76cfb65ff5d7d09457af4" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="77ca57f3-f8d2-4a58-a2e5-ff9d774d27c2"/>
@@ -17624,16 +17633,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE5AC49-611F-46BD-9F5D-ABA8609AAB3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50DA4852-2F31-4A60-BF9E-5E5738226F66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17651,12 +17659,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE5AC49-611F-46BD-9F5D-ABA8609AAB3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>